--- a/lab-9-10/Тестирование.xlsx
+++ b/lab-9-10/Тестирование.xlsx
@@ -22,24 +22,57 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataSignature="AMtx7mjXr7AwUB1fpsVjpAJdItPTPb2Sig=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataSignature="AMtx7mjVzBJWhBVhN84U3Aa/vgrYRzMUmQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="211">
+  <si>
+    <t>Тест кейсы</t>
+  </si>
   <si>
     <t>Наименование: Форма авторизации</t>
   </si>
   <si>
-    <t>Тест кейсы</t>
-  </si>
-  <si>
     <t>Тест-план по системному тестированию "Youdo-clone"</t>
   </si>
   <si>
+    <t>Результат 27.05.2020</t>
+  </si>
+  <si>
+    <t>Дефект</t>
+  </si>
+  <si>
+    <t>Форма авторизации</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Авторизован, роль - администратора</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Важность</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>Авторизован,роль - пользователь</t>
+  </si>
+  <si>
     <t>Цели доработки: Обеспечение корректного функционирования</t>
   </si>
   <si>
@@ -49,64 +82,133 @@
     <t xml:space="preserve">1 - высший приоритет </t>
   </si>
   <si>
-    <t>Результат 27.05.2020</t>
-  </si>
-  <si>
-    <t>Дефект</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Форма авторизации</t>
+    <t>user@gmail.coooom</t>
+  </si>
+  <si>
+    <t>Не авторизован, неправильная почта</t>
+  </si>
+  <si>
+    <t>Описание: тест-кейс для проверки корректности работы формы авторизации</t>
+  </si>
+  <si>
+    <t>Уведомление о некоректных данных</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Проверено. Доработок не требует</t>
+  </si>
+  <si>
+    <t>№ дефекта</t>
+  </si>
+  <si>
+    <t>user@</t>
+  </si>
+  <si>
+    <t>Тестировщик:</t>
+  </si>
+  <si>
+    <t>Попова Д.С.</t>
+  </si>
+  <si>
+    <t>Не авторизован, неправильный пароль</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
   <si>
     <t>Область функционала</t>
   </si>
   <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>Авторизован, роль - администратора</t>
-  </si>
-  <si>
     <t>Приоритет</t>
   </si>
   <si>
     <t>Стратегия тестирования</t>
   </si>
   <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Описание: тест-кейс для проверки корректности работы формы авторизации</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Важность</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Авторизация проходит</t>
-  </si>
-  <si>
-    <t>Проверено. Доработок не требует</t>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>passw</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>Ввод существующего в бд почты и пароля</t>
+  </si>
+  <si>
+    <t>Создать задачу - форма создания задачи</t>
+  </si>
+  <si>
+    <t>При правильном вводе логина, пароля авторизует пользователя с соотстветствующими его роли правами</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>Найти задачу - список задач</t>
+  </si>
+  <si>
+    <t>Работает как ожидается</t>
+  </si>
+  <si>
+    <t>Найти исполнителя - список исполнителей</t>
+  </si>
+  <si>
+    <t>Ввод несуществуюшей в бд почты и существующего пароля</t>
+  </si>
+  <si>
+    <t>Показывает сообщение об ошибка при неправильном вводе почты</t>
+  </si>
+  <si>
+    <t>Ввод несуществующего в бд пароля и существущей почты</t>
+  </si>
+  <si>
+    <t>Логотип - главная</t>
+  </si>
+  <si>
+    <t>Мои заказы  - мои заказы (как исполнителя, так и заказчика)</t>
+  </si>
+  <si>
+    <t>Профиль - личная страница авторизованного пользователя</t>
+  </si>
+  <si>
+    <t>Проверить, что авторизация проходит, полное покрытие вариантов ввода логина и пароля</t>
+  </si>
+  <si>
+    <t>Показывает сообщение об ошибка при неправильном вводе пароля</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>Предложение оказания услуги исполнителем</t>
   </si>
   <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
-    <t>Авторизован,роль - пользователь</t>
-  </si>
-  <si>
-    <t>Данные записываются в бд, в интерфейсе задачи появляется предложение услуги</t>
+    <t>Проверить, что данные записываются в бд, в интерфейсе задачи появляется предложение услуги</t>
   </si>
   <si>
     <t>Проверено. Требует доработок</t>
@@ -115,177 +217,147 @@
     <t>Форма создания задачи</t>
   </si>
   <si>
-    <t>Нельзя отправить форму пустой, проверка на обязательные поля, в поле телефон нельзя ввести буквы, форма дает обратную связь об успешном отправлении формы</t>
-  </si>
-  <si>
-    <t>Главное меню</t>
-  </si>
-  <si>
-    <t>Переход по ссылкам выполняется корректно</t>
+    <t>Проверить, что нельзя отправить форму пустой, проверка на обязательные поля, в поле телефон нельзя ввести буквы, форма дает обратную связь об успешном отправлении формы</t>
+  </si>
+  <si>
+    <t>Вводимые данные:</t>
+  </si>
+  <si>
+    <t>Проверить работу пунктов меню</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>Вход под администратором</t>
   </si>
   <si>
-    <t xml:space="preserve">Форма валидна, дает доступ только при верном логине и пароле </t>
-  </si>
-  <si>
-    <t>№ дефекта</t>
+    <t xml:space="preserve">Проверить валидность формы, что она дает доступ только при верном логине и пароле </t>
   </si>
   <si>
     <t>Роль: модератор - одобрение/отказ публикаци задачи</t>
   </si>
   <si>
-    <t>Тестировщик:</t>
-  </si>
-  <si>
-    <t>Задача становится доступна для пользователей при одобрении модератором, пользователю отправляется уведомление об успешной публикации. Задача недоступна в общем списке задач при отказе модератором, автору отправляется уведомление об отказе и причины отказа.</t>
+    <t>В качестве модератора одобрить задачу, отказать в публикации задачи. В качестве пользователя проверить, пришло ли уведомлении об успешной или неуспешной публикации его задачи.</t>
   </si>
   <si>
     <t xml:space="preserve">Роль: админ - назначение модератора </t>
   </si>
   <si>
-    <t>Модератор назначается, модератору доступны соотвествующие его роли раздел сайта и возможности.</t>
-  </si>
-  <si>
-    <t>Попова Д.С.</t>
-  </si>
-  <si>
-    <t>user@gmail.coooom</t>
-  </si>
-  <si>
-    <t>Не авторизован, неправильная почта</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Уведомление о некоректных данных</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>user@</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Фактический результат</t>
-  </si>
-  <si>
-    <t>При правильном вводе логина, пароля авторизует пользователя с соотстветствующими его роли правами</t>
-  </si>
-  <si>
-    <t>Х</t>
-  </si>
-  <si>
-    <t>Не авторизован, неправильный пароль</t>
-  </si>
-  <si>
-    <t>Работает как ожидается</t>
-  </si>
-  <si>
-    <t>Показывает сообщение об ошибка при неправильном вводе почты</t>
-  </si>
-  <si>
-    <t>passw</t>
-  </si>
-  <si>
-    <t>Показывает сообщение об ошибка при неправильном вводе пароля</t>
-  </si>
-  <si>
-    <t>Создать задачу - форма создания задачи</t>
-  </si>
-  <si>
-    <t>Вводимые данные:</t>
-  </si>
-  <si>
-    <t>Найти задачу - список задач</t>
-  </si>
-  <si>
-    <t>Найти исполнителя - список исполнителей</t>
-  </si>
-  <si>
-    <t>Логотип - главная</t>
-  </si>
-  <si>
-    <t>Мои заказы  - мои заказы (как исполнителя, так и заказчика)</t>
-  </si>
-  <si>
-    <t>Профиль - личная страница авторизованного пользователя</t>
+    <t>В качестве админа добавить модератора, в качества модератора проверить, есть ли у него доступ к соответствующим его роли разделам</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
   <si>
     <t>Наименование: Предложение оказания услуги исполнителем</t>
   </si>
   <si>
+    <t>Описание: Предложение оказания услуги исполнителем</t>
+  </si>
+  <si>
+    <t>Проверено. Требует доработки</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Не работает</t>
+  </si>
+  <si>
+    <t>Тестировщик: Попова Д.С.</t>
+  </si>
+  <si>
+    <t>Работает частично</t>
+  </si>
+  <si>
+    <t>Заполнение формы предложения услуги и клик по кнопке "Отправить"</t>
+  </si>
+  <si>
+    <t>Отправление данных в бд</t>
+  </si>
+  <si>
     <t>Наименование: Форма создания задачи</t>
   </si>
   <si>
+    <t>Переход на страницу задачи</t>
+  </si>
+  <si>
+    <t>Отображение предложения на странице задачи</t>
+  </si>
+  <si>
     <t>Описание: создание задачи через форму</t>
   </si>
   <si>
-    <t>Описание: Предложение оказания услуги исполнителем</t>
-  </si>
-  <si>
     <t>Проверено, доработки не требует</t>
   </si>
   <si>
-    <t>Проверено. Требует доработки</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>Не работает</t>
-  </si>
-  <si>
-    <t>Тестировщик: Попова Д.С.</t>
-  </si>
-  <si>
-    <t>Работает частично</t>
+    <t>Заполнение формы предложения услуги без поля оплаты и клик по кнопке "Отправить"</t>
+  </si>
+  <si>
+    <t>При пустующем поле оплаты отправления не происходит</t>
+  </si>
+  <si>
+    <t>Не заполняя форму, нажать кнопку "отправить"</t>
   </si>
   <si>
     <t>Форму нельзя отправить пустой</t>
   </si>
   <si>
-    <t>Отправление данных в бд</t>
+    <t>Заполнение формы предложения услуги без поля описания и клик по кнопке "Отправить"</t>
+  </si>
+  <si>
+    <t>При пустующем поле описания отправления не происходит</t>
+  </si>
+  <si>
+    <t>Не заполняя, отмеченные обязательными поля, нажать кнопку "отправить"</t>
   </si>
   <si>
     <t>Форму нельзя отправить без заполнения обязательных полей</t>
   </si>
   <si>
+    <t>Ввести в поле телефона буквы</t>
+  </si>
+  <si>
     <t>В поле телефон нельзя ввести буквы</t>
   </si>
   <si>
+    <t>Заполнить форму правильно и нажать "Отправить", заполнить форму неправильно и нажать "Отправить"</t>
+  </si>
+  <si>
+    <t>Форма дает обратную связь об успешном/неуспешном создании задания</t>
+  </si>
+  <si>
     <t>Форма дает обратную связь об успешном/неуспешном зказе</t>
   </si>
   <si>
-    <t>Закрывается переходе на другую страницу</t>
+    <t>Нажать на ссылку переходу на другую страницу</t>
+  </si>
+  <si>
+    <t>Закрывается при переходе на другую страницу</t>
+  </si>
+  <si>
+    <t>Отправить заполненную форму и проверить, сохранились ли данные в бд</t>
   </si>
   <si>
     <t>Данные передаются в БД</t>
   </si>
   <si>
-    <t>Показано для какого товара выводится форма</t>
+    <t>Выбрать категорию задания и посмотреть, корректно ли  в форме отображается категория задания</t>
+  </si>
+  <si>
+    <t>Показано для какой категории звдвния выводится форма</t>
+  </si>
+  <si>
+    <t>Показано для какой категории выводится форма</t>
+  </si>
+  <si>
+    <t>Ввести некорретные данные в поле ввода</t>
   </si>
   <si>
     <t>В поле email нельзя ввести некоректные данные</t>
   </si>
   <si>
-    <t>Отображение предложения на странице задачи</t>
-  </si>
-  <si>
     <t>Всё корректно</t>
   </si>
   <si>
@@ -295,12 +367,6 @@
     <t>Информирует</t>
   </si>
   <si>
-    <t>При пустующем поле оплаты отправления не происходит</t>
-  </si>
-  <si>
-    <t>При пустующем поле описания отправления не происходит</t>
-  </si>
-  <si>
     <t>Не отправлен</t>
   </si>
   <si>
@@ -328,57 +394,111 @@
     <t>Описание: тест-кейс для проверки входа для роли администратор</t>
   </si>
   <si>
+    <t>Выбрать "Создать задачу"</t>
+  </si>
+  <si>
+    <t>Заполнить не все поля в форме и нажать кнопку "Отправить"</t>
+  </si>
+  <si>
+    <t>Выбрать "Найти задачу"</t>
+  </si>
+  <si>
     <t>Нельзя отправить форму, пока заполнены не все поля</t>
   </si>
   <si>
+    <t>Выбрать "Найти исполнителя"</t>
+  </si>
+  <si>
+    <t>Набрать пароль</t>
+  </si>
+  <si>
     <t>В поле пароль - пароль скрыт точками</t>
   </si>
   <si>
+    <t>Нажать на логотип</t>
+  </si>
+  <si>
+    <t>Ввести некорректные данные</t>
+  </si>
+  <si>
     <t xml:space="preserve">Форма уведомляет о некоректных данных </t>
   </si>
   <si>
+    <t>Выбрать "Мои заказы"</t>
+  </si>
+  <si>
     <t>При неверном логине или пароле сообщает об этом</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>Выбрать "Профиль"</t>
+  </si>
+  <si>
+    <t>Ввести урл админки без авторизации как админ</t>
+  </si>
+  <si>
     <t>Форму нельзя "обойти" и попать в админку без доступа</t>
   </si>
   <si>
     <t>Наименование: Роль: модератор - одобрение/отказ публикаци задачи</t>
   </si>
   <si>
+    <t xml:space="preserve">Наименование: Роль: админ - назначение модератора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание: тест-кейс для проверки возможности администратора назначать модератора </t>
+  </si>
+  <si>
     <t>Описание: тест-кейс для проверки роли: модератор - одобрение/отказ публикаци задачи</t>
   </si>
   <si>
     <t>3;4</t>
   </si>
   <si>
+    <t>В качестве администратора  добавить модератора и проверить, появилась ли запись в бд</t>
+  </si>
+  <si>
+    <t>При выборе пользователя  в администраторы, в бд записывается его новая роль</t>
+  </si>
+  <si>
+    <t>Зайти в профиль нового модератора и проверить уведомления</t>
+  </si>
+  <si>
+    <t>Пользователю отправляется уведомление о его новой роли</t>
+  </si>
+  <si>
+    <t>Нажать "Одобрить"</t>
+  </si>
+  <si>
     <t>При одобрении задача появляется в списке задач</t>
   </si>
   <si>
-    <t xml:space="preserve">Наименование: Роль: админ - назначение модератора </t>
+    <t>Не появляется</t>
+  </si>
+  <si>
+    <t>Нажать "Отказать"</t>
+  </si>
+  <si>
+    <t>При отказе задача не появляется в списке задач</t>
+  </si>
+  <si>
+    <t>Зайти в качестве пользователя и посмотреть уведомления</t>
+  </si>
+  <si>
+    <t>Пользователю отправляется уведомление о публикации или отказе</t>
+  </si>
+  <si>
+    <t>Не отправляется</t>
   </si>
   <si>
     <t>Название</t>
   </si>
   <si>
-    <t xml:space="preserve">Описание: тест-кейс для проверки возможности администратора назначать модератора </t>
-  </si>
-  <si>
     <t>Отправление данных в бд при отклике исполнителя на задачу</t>
   </si>
   <si>
-    <t>При выборе пользователя  в администраторы, в бд записывается его новая роль</t>
-  </si>
-  <si>
-    <t>Пользователю отправляется уведомление о его новой роли</t>
-  </si>
-  <si>
-    <t>Не появляется</t>
-  </si>
-  <si>
     <t>№ тест-кейса</t>
   </si>
   <si>
@@ -409,6 +529,9 @@
     <t>Blocker</t>
   </si>
   <si>
+    <t>trivial</t>
+  </si>
+  <si>
     <t>Opened</t>
   </si>
   <si>
@@ -430,9 +553,15 @@
     <t>Retest</t>
   </si>
   <si>
+    <t>hight</t>
+  </si>
+  <si>
     <t>Minor</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Fixed</t>
   </si>
   <si>
@@ -451,54 +580,36 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>При отказе задача не появляется в списке задач</t>
-  </si>
-  <si>
-    <t>Пользователю отправляется уведомление об уведобомлении или отказе</t>
+    <t>Не отображаются существующие предложения под задачей</t>
   </si>
   <si>
     <t>Данные не отавляются в бд при заполнении формы и клике по кнопке "Отправить"</t>
   </si>
   <si>
-    <t>Не отправляется</t>
+    <t>Когда модератор просматривает задачу для одобрения на публикацию, при одобрении задача должна появляться в доступных для пользователей задача</t>
   </si>
   <si>
     <t xml:space="preserve">Как сейчас/как должно быть: </t>
   </si>
   <si>
+    <t>Под задачей должны отображаться предложения об услугах исполнителей</t>
+  </si>
+  <si>
     <t>При заполнении формы предложения об услугах по клику на "Отправить" нужно отправлять данные в бд</t>
   </si>
   <si>
+    <t>При одобрении модератором задача должна появляться в списке задач</t>
+  </si>
+  <si>
     <t>Вложения</t>
   </si>
   <si>
-    <t>trivial</t>
-  </si>
-  <si>
-    <t>Не отображаются существующие предложения под задачей</t>
-  </si>
-  <si>
-    <t>Под задачей должны отображаться предложения об услугах исполнителей</t>
-  </si>
-  <si>
-    <t>hight</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>Когда модератор просматривает задачу для одобрения на публикацию, при одобрении задача должна появляться в доступных для пользователей задача</t>
+    <t>Отчет о системном тестировании "Youdo-clone"</t>
   </si>
   <si>
     <t>Пользователю отправляется уведомление об отказе или одобрении</t>
   </si>
   <si>
-    <t>При одобрении модератором задача должна появляться в списке задач</t>
-  </si>
-  <si>
-    <t>Отчет о системном тестировании "Youdo-clone"</t>
-  </si>
-  <si>
     <t>Версия</t>
   </si>
   <si>
@@ -517,10 +628,10 @@
     <t>к-во выполненных тестов</t>
   </si>
   <si>
+    <t>Когда модератор просматривает задачу для одобрения на публикацию, при одобрении или отказе пользователю должно отправляется уведомление</t>
+  </si>
+  <si>
     <t>к-во успешно выполненных тестов</t>
-  </si>
-  <si>
-    <t>Когда модератор просматривает задачу для одобрения на публикацию, при одобрении или отказе пользователю должно отправляется уведомление</t>
   </si>
   <si>
     <t>Уведомление не отправляется</t>
@@ -557,8 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0&quot;руб.&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d.m"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;руб.&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -571,10 +683,25 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -584,25 +711,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -611,17 +727,20 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <b/>
       <sz val="13.0"/>
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -637,17 +756,12 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -717,16 +831,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -772,11 +878,6 @@
       </bottom>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left/>
       <top/>
       <bottom style="thin">
@@ -810,13 +911,43 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -834,14 +965,20 @@
       </left>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -853,50 +990,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <left style="medium">
@@ -920,6 +1013,19 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -937,6 +1043,14 @@
       <bottom/>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -951,22 +1065,9 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left/>
@@ -975,11 +1076,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
     </border>
     <border>
       <right style="thin">
@@ -993,433 +1089,427 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="19" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="18" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="30" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="32" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="7" numFmtId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="33" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="27" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="33" fillId="6" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="33" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="14" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="25" fillId="5" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="11" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="24" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1694,164 +1784,197 @@
     <col customWidth="1" min="2" max="2" width="36.75"/>
     <col customWidth="1" min="3" max="3" width="11.88"/>
     <col customWidth="1" min="4" max="4" width="41.5"/>
-    <col customWidth="1" min="5" max="5" width="29.0"/>
-    <col customWidth="1" min="6" max="26" width="7.63"/>
+    <col customWidth="1" min="5" max="6" width="29.0"/>
+    <col customWidth="1" min="7" max="27" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
+      <c r="B3" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>4</v>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="18"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="C9" s="62">
         <v>1.0</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>21</v>
+      <c r="D9" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="39">
+      <c r="B10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="71">
         <v>1.0</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>26</v>
+      <c r="D10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="B11" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="71">
         <v>1.0</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>21</v>
+      <c r="D11" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="27.0" customHeight="1">
-      <c r="B12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="B12" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="71">
         <v>1.0</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>21</v>
+      <c r="D12" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="56.25" customHeight="1">
-      <c r="B13" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="B13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="71">
         <v>1.0</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>21</v>
+      <c r="D13" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="B14" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="71">
         <v>1.0</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>26</v>
+      <c r="D14" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="40.5" customHeight="1">
-      <c r="B15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="39">
+      <c r="B15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="71">
         <v>2.0</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="45.0" customHeight="1"/>
+      <c r="D15" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="45.0" customHeight="1">
+      <c r="B16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="86">
+        <v>43833.0</v>
+      </c>
+      <c r="F16" s="88"/>
+    </row>
     <row r="17" ht="45.0" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="1"/>
-    </row>
+    <row r="18" ht="45.0" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
     </row>
@@ -4795,14 +4918,18 @@
     <row r="1000" ht="14.25" customHeight="1">
       <c r="C1000" s="1"/>
     </row>
+    <row r="1001" ht="14.25" customHeight="1">
+      <c r="C1001" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="8">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions/>
@@ -4832,208 +4959,208 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="D2" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="D3" s="145" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="150">
+      <c r="D3" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="161">
         <v>1.0</v>
       </c>
-      <c r="F3" s="145" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="152">
+      <c r="F3" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="162">
         <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="D4" s="145" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="145" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="62"/>
+      <c r="D4" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="62"/>
+      <c r="D5" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="D6" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="145" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>124</v>
+      <c r="D6" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="159" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="D7" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="62"/>
+      <c r="D7" s="164" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="D8" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="62"/>
+      <c r="D8" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="D9" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="62"/>
+      <c r="D9" s="164" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="D10" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="62"/>
+      <c r="D10" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="D11" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="62"/>
+      <c r="D11" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="145" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="62"/>
+      <c r="D12" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="162"/>
+      <c r="D13" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="D14" s="81"/>
-      <c r="E14" s="164"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="170"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="D15" s="81"/>
-      <c r="E15" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="36"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" ht="39.0" customHeight="1">
-      <c r="D16" s="81"/>
-      <c r="E16" s="165" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="36"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="172" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" ht="26.25" customHeight="1">
-      <c r="D17" s="81"/>
-      <c r="E17" s="164"/>
-      <c r="G17" s="36"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" ht="39.0" customHeight="1">
-      <c r="D18" s="81"/>
-      <c r="E18" s="164"/>
-      <c r="G18" s="36"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="170"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" ht="39.0" customHeight="1">
-      <c r="D19" s="81"/>
-      <c r="E19" s="164"/>
-      <c r="G19" s="36"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="170"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="D20" s="81"/>
-      <c r="E20" s="167"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="173"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="D21" s="81"/>
-      <c r="E21" s="164"/>
-      <c r="G21" s="36"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="170"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="D22" s="81"/>
-      <c r="E22" s="164"/>
-      <c r="G22" s="36"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="170"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="D23" s="81"/>
-      <c r="E23" s="164"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="170"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="D24" s="27"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="175"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="141"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="D25" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="172"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="161"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
@@ -6012,21 +6139,21 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6058,208 +6185,208 @@
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="E5" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="168" t="s">
+      <c r="E5" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="E6" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="172">
+      <c r="E6" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="161">
         <v>2.0</v>
       </c>
-      <c r="G6" s="166" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="152">
+      <c r="G6" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="162">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="E7" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="166" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="34"/>
+      <c r="E7" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="E8" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="166" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="34"/>
+      <c r="E8" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="E9" s="166" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>124</v>
+      <c r="E9" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="159" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="E10" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="34"/>
+      <c r="E10" s="164" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="E11" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="34"/>
+      <c r="E11" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="E12" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="34"/>
+      <c r="E12" s="164" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="E13" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="34"/>
+      <c r="E13" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="E14" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="34"/>
+      <c r="E14" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="E15" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="34"/>
+      <c r="E15" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="E16" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="162"/>
+      <c r="E16" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="E17" s="81"/>
-      <c r="F17" s="164"/>
-      <c r="H17" s="36"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="H17" s="113"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="E18" s="81"/>
-      <c r="F18" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="36"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" ht="45.0" customHeight="1">
-      <c r="E19" s="81"/>
-      <c r="F19" s="176" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="36"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="171" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="113"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="E20" s="81"/>
-      <c r="F20" s="164"/>
-      <c r="H20" s="36"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="H20" s="113"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="E21" s="81"/>
-      <c r="F21" s="164"/>
-      <c r="H21" s="36"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="H21" s="113"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="E22" s="81"/>
-      <c r="F22" s="164"/>
-      <c r="H22" s="36"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="E23" s="81"/>
-      <c r="F23" s="167"/>
-      <c r="H23" s="36"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="173"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="E24" s="81"/>
-      <c r="F24" s="164"/>
-      <c r="H24" s="36"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="E25" s="81"/>
-      <c r="F25" s="164"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="E26" s="81"/>
-      <c r="F26" s="164"/>
-      <c r="H26" s="36"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="H26" s="113"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="E27" s="27"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="175"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="141"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="E28" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="161"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
@@ -7280,208 +7407,208 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="160" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="F5" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="177">
+      <c r="F5" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="160">
         <v>3.0</v>
       </c>
-      <c r="H5" s="166" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="152">
+      <c r="H5" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="162">
         <v>6.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="F6" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="166" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="34"/>
+      <c r="F6" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="F7" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="166" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="34"/>
+      <c r="F7" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="F8" s="166" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>151</v>
+      <c r="F8" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="159" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="F9" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="34"/>
+      <c r="F9" s="164" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="F10" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="34"/>
+      <c r="F10" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="F11" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="34"/>
+      <c r="F11" s="164" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="F12" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="34"/>
+      <c r="F12" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="F13" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="34"/>
+      <c r="F13" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="F14" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="34"/>
+      <c r="F14" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" ht="43.5" customHeight="1">
-      <c r="F15" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="162"/>
+      <c r="F15" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="167"/>
+      <c r="I15" s="168"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="F16" s="81"/>
-      <c r="G16" s="164"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="F17" s="81"/>
-      <c r="G17" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="36"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="F18" s="81"/>
-      <c r="G18" s="179" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="36"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="F19" s="81"/>
-      <c r="G19" s="164"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+      <c r="I19" s="113"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="F20" s="81"/>
-      <c r="G20" s="164"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="F21" s="81"/>
-      <c r="G21" s="164"/>
-      <c r="I21" s="36"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="F22" s="81"/>
-      <c r="G22" s="167"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="173"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="F23" s="81"/>
-      <c r="G23" s="164"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="F24" s="81"/>
-      <c r="G24" s="164"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="170"/>
+      <c r="I24" s="113"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="F25" s="81"/>
-      <c r="G25" s="164"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="170"/>
+      <c r="I25" s="113"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="F26" s="27"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="175"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="F27" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="161"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -8503,208 +8630,208 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="166" t="s">
-        <v>110</v>
+      <c r="F4" s="159" t="s">
+        <v>154</v>
       </c>
       <c r="G4" s="178" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="F5" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="177">
+      <c r="F5" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="180">
         <v>4.0</v>
       </c>
-      <c r="H5" s="166" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="180">
+      <c r="H5" s="159" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="162">
         <v>6.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="F6" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="166" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="34"/>
+      <c r="F6" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="F7" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="166" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="34"/>
+      <c r="F7" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="F8" s="166" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="184" t="s">
-        <v>151</v>
+      <c r="F8" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="159" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="F9" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="34"/>
+      <c r="F9" s="164" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="F10" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="34"/>
+      <c r="F10" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="F11" s="154" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="154" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="34"/>
+      <c r="F11" s="164" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="F12" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="34"/>
+      <c r="F12" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="F13" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="34"/>
+      <c r="F13" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="F14" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="34"/>
+      <c r="F14" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" ht="43.5" customHeight="1">
-      <c r="F15" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="162"/>
+      <c r="F15" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="167"/>
+      <c r="I15" s="168"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="F16" s="81"/>
-      <c r="G16" s="164"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="F17" s="81"/>
-      <c r="G17" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="36"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="F18" s="81"/>
-      <c r="G18" s="179" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="36"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="F19" s="81"/>
-      <c r="G19" s="164"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+      <c r="I19" s="113"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="F20" s="81"/>
-      <c r="G20" s="164"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="F21" s="81"/>
-      <c r="G21" s="164"/>
-      <c r="I21" s="36"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="F22" s="81"/>
-      <c r="G22" s="167"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="173"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="F23" s="81"/>
-      <c r="G23" s="164"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="F24" s="81"/>
-      <c r="G24" s="164"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="170"/>
+      <c r="I24" s="113"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="F25" s="81"/>
-      <c r="G25" s="164"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="170"/>
+      <c r="I25" s="113"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="F26" s="27"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="175"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="F27" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="161"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -9682,12 +9809,6 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
@@ -9695,7 +9816,13 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="F15:F26"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9723,343 +9850,343 @@
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="F3" s="181" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
+      <c r="F3" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="182" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
+      <c r="F4" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="F5" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="183">
+      <c r="F5" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="179">
         <v>43978.0</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="F6" s="182" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="185" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
+      <c r="F6" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="182"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="F9" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="F9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="17">
         <v>100.0</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="F10" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="F10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="17">
         <v>100.0</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="182">
         <v>1.0</v>
       </c>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="F11" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="F11" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="17">
         <v>95.0</v>
       </c>
-      <c r="H11" s="187">
+      <c r="H11" s="183">
         <v>0.95</v>
       </c>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="182"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="F12" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="34">
+      <c r="F12" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="17">
         <v>5.0</v>
       </c>
-      <c r="H12" s="187">
+      <c r="H12" s="183">
         <v>0.05</v>
       </c>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="F14" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="184">
         <v>4.0</v>
       </c>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="F15" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
+      <c r="F15" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="F16" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="184">
         <v>3.0</v>
       </c>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="F17" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="34">
+      <c r="F17" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="17">
         <v>1.0</v>
       </c>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="182"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="F18" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="182"/>
+      <c r="F18" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="F19" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
+      <c r="F19" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="185"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="F22" s="188" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
+      <c r="F22" s="186" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="F23" s="189" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
+      <c r="F23" s="187" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
     </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
@@ -11073,257 +11200,257 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="L2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="F4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="14"/>
+      <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="J2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="14"/>
+      <c r="F7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="F4" s="36"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="30"/>
-      <c r="F7" s="36"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="27"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="14"/>
+      <c r="F10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="14"/>
+      <c r="C11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="14"/>
+      <c r="C13" s="37"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="B14" s="14"/>
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="51"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="B16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="55" t="s">
+      <c r="C16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="F10" s="36"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="60"/>
-      <c r="F13" s="36"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F16" s="56"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="B17" s="14"/>
+      <c r="C17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="B18" s="14"/>
+      <c r="C18" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="14"/>
+      <c r="C19" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="14"/>
+      <c r="C20" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="30"/>
-      <c r="C20" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="F20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="82"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="61"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
     <row r="25" ht="14.25" customHeight="1"/>
@@ -12306,8 +12433,8 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L8:L9"/>
     <mergeCell ref="L14:L15"/>
   </mergeCells>
   <printOptions/>
@@ -12327,7 +12454,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -12338,192 +12466,204 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>21</v>
+      <c r="C2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="C4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43978.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="C5" s="30"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="48" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D6" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="53" t="s">
+      <c r="G6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="54">
-        <v>43978.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="C5" s="26"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="57" t="s">
+      <c r="C7" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="61" t="s">
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="B9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="41" t="s">
-        <v>54</v>
+      <c r="C9" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70" t="s">
+        <v>47</v>
       </c>
       <c r="H9" s="72"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="74"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="76" t="s">
-        <v>59</v>
+      <c r="C11" s="73" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="C13" s="76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="81"/>
+      <c r="C14" s="78"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="83" t="s">
-        <v>23</v>
+      <c r="C15" s="80" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="84" t="s">
-        <v>19</v>
+      <c r="C16" s="76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="81"/>
+      <c r="C17" s="78"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="83" t="s">
-        <v>40</v>
+      <c r="C18" s="80" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="84" t="s">
-        <v>19</v>
+      <c r="C19" s="76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="81"/>
+      <c r="C20" s="78"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="83" t="s">
-        <v>47</v>
+      <c r="C21" s="80" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="84" t="s">
-        <v>19</v>
+      <c r="C22" s="76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="85"/>
+      <c r="C23" s="83"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="83" t="s">
-        <v>23</v>
+      <c r="C24" s="80" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="86" t="s">
-        <v>56</v>
+      <c r="C25" s="85" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
@@ -13503,8 +13643,8 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -13523,7 +13663,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="13.0"/>
@@ -13534,192 +13675,207 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="26">
         <v>123.0</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>70</v>
+      <c r="C2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="C4" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43978.0</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="93"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
-        <v>43978.0</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
       <c r="C6" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107">
+      <c r="F7" s="90"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="109" t="s">
+      <c r="B8" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="107">
+      <c r="D8" s="101"/>
+      <c r="E8" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="100">
         <v>2.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="H9" s="119"/>
+      <c r="D9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="B10" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="117"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="125" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="126">
+      <c r="C13" s="122">
         <v>1500.0</v>
       </c>
-      <c r="D13" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="119" t="s">
-        <v>91</v>
+      <c r="D13" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="129"/>
+      <c r="C14" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="130"/>
-      <c r="E15" s="129"/>
+      <c r="C15" s="127"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="131">
+      <c r="C16" s="128">
         <v>1000.0</v>
       </c>
-      <c r="D16" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>93</v>
+      <c r="D16" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="132"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="130"/>
-      <c r="E18" s="129"/>
+      <c r="C18" s="127"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="133" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="135" t="s">
-        <v>93</v>
+      <c r="C19" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -14725,7 +14881,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -14736,191 +14893,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>69</v>
+      <c r="C2" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="90"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="C4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
         <v>43978.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="101"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="100" t="s">
-        <v>77</v>
+      <c r="B8" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="101"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="65"/>
+      <c r="B9" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="65"/>
+      <c r="B10" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="109"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="36"/>
+      <c r="B11" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="113"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="36"/>
+      <c r="B12" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="113"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="36"/>
+      <c r="B13" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="110" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="36"/>
+      <c r="B14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="113"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="116"/>
+      <c r="B15" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="123"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -15927,7 +16114,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="20.88"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -15938,160 +16126,185 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>21</v>
+      <c r="C2" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="46"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="C4" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
         <v>43978.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="99"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="B10" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="109"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="109"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="109"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="B13" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="77" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="109"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="77" t="s">
-        <v>63</v>
+      <c r="B14" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>93</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B15" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="64" t="s">
-        <v>93</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="139"/>
+      <c r="C19" s="143"/>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -17096,7 +17309,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="21.63"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -17107,157 +17321,175 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>21</v>
+      <c r="C2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="C4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43978.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="92" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D6" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
-        <v>43978.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="57" t="s">
+      <c r="G6" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="65"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="103" t="s">
-        <v>100</v>
+      <c r="B8" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="65"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="65"/>
+      <c r="B9" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="65"/>
+      <c r="B10" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="109"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="142"/>
+      <c r="B11" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="141"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="74"/>
-      <c r="D15" s="105"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="1"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="139"/>
+      <c r="C19" s="143"/>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -18262,7 +18494,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="23.75"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="13.13"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -18273,122 +18506,134 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>70</v>
+      <c r="C2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="C4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43978.0</v>
+      </c>
+      <c r="H4" s="146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="119" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="92" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
-        <v>43978.0</v>
-      </c>
-      <c r="H4" s="143" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="94" t="s">
+      <c r="G6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="148"/>
+      <c r="E7" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="156">
+      <c r="F7" s="150"/>
+      <c r="G7" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="151">
         <v>3.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="157"/>
+      <c r="B8" s="136" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="153"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="C9" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="163"/>
-      <c r="G9" s="169" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="171">
+      <c r="B9" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="158">
         <v>4.0</v>
       </c>
     </row>
@@ -18396,22 +18641,22 @@
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="18"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="18"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="174"/>
+      <c r="C19" s="143"/>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -19416,7 +19661,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
     <col customWidth="1" min="3" max="3" width="23.25"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
@@ -19427,95 +19673,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="1">
-      <c r="C1" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="C2" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>21</v>
+      <c r="C2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="44"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="C4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43978.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="C4" s="92" t="s">
+      <c r="C6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="54">
-        <v>43978.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="C6" s="94" t="s">
+      <c r="D6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="129"/>
+      <c r="G7" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="C8" s="149" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="153" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="155" t="s">
-        <v>93</v>
+      <c r="B8" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="64" t="s">
+        <v>115</v>
       </c>
       <c r="H8" s="142"/>
     </row>
@@ -19523,39 +19778,39 @@
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="74"/>
-      <c r="D12" s="105"/>
-      <c r="G12" s="74"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="1"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="74"/>
-      <c r="D13" s="105"/>
-      <c r="G13" s="74"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="1"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="74"/>
-      <c r="D14" s="105"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="74"/>
-      <c r="D15" s="105"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="1"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="74"/>
-      <c r="D16" s="105"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="1"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="74"/>
-      <c r="D17" s="105"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="1"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="74"/>
-      <c r="D18" s="105"/>
-      <c r="G18" s="74"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="1"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
